--- a/src/assets/DW_Mini_case.xlsx
+++ b/src/assets/DW_Mini_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Attila Hagelmayer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\projects\angular\awesome-pharma\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2835107B-FF5D-46F3-9803-89400EF7FC8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F492D-10C3-4DB0-86C2-F2A744A83F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AA7CC2-6CE3-4DB2-A4C7-00C53CA02F6C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1249,22 +1249,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A51BFE-2171-430A-872A-7971BDC90715}">
   <dimension ref="A1:G809"/>
   <sheetViews>
-    <sheetView topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A778"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E700" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>56</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>52</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>57</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>69</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>71</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>72</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>70</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>45</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>74</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>77</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>78</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>46</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>38</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>76</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>57</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>79</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>57</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>34</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>80</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>45</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>82</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>48</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>61</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>83</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>64</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>57</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>57</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>85</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>86</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>25</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>88</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>64</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>35</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>89</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>23</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>82</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>89</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>89</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>90</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>87</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>35</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>91</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>89</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>83</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>82</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>84</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>69</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>83</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>64</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>89</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>93</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>56</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>94</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>65</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>30</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>84</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>23</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>19</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>23</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>19</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>84</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>23</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>23</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>19</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>93</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>95</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>64</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>19</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>86</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>34</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>96</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>97</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>25</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>89</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>64</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>84</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>87</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>97</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>21</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>23</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>82</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>30</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>25</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>25</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>84</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>83</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>89</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>90</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>83</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>19</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>92</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>25</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>84</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>28</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>19</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>92</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>98</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>25</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>19</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>73</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>19</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>23</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>19</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>30</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>34</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>23</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>34</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>80</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>23</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>23</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>88</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>30</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>23</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>81</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>19</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>25</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>25</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>25</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>84</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>80</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>25</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>99</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>69</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>32</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>82</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>25</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>80</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>80</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>19</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>25</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>64</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>19</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>23</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>64</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>64</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>19</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>64</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>23</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>23</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>82</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>69</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>19</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>19</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>45</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>95</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>21</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>96</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>96</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>19</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>23</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>19</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>23</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>23</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>19</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>19</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>84</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>84</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>93</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>19</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>93</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>19</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>19</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>19</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>84</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>84</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>19</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>19</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>19</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>23</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>84</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>19</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>23</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>84</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>64</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>92</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>79</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>73</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>19</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>25</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>28</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>25</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>98</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>83</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>19</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>81</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>92</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>37</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>92</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>19</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>89</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>28</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>19</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>25</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>81</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>19</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>25</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>25</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>25</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>25</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>82</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>100</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>81</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>81</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>80</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>80</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>81</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>97</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>57</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>94</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>19</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>97</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>57</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>25</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>81</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>64</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>23</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>102</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>103</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>19</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>104</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>105</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>19</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>19</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>34</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>74</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>106</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>49</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>19</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>37</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>107</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>19</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>47</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>64</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>45</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>19</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>37</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>108</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>23</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>19</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>25</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>104</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>19</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>97</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>109</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>23</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>110</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>106</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>49</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>109</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>25</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>25</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>108</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>74</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>25</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>74</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>19</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>23</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>104</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>37</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>34</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>37</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>112</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>28</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>82</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>105</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>19</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>102</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>25</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>102</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>113</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>102</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>82</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>19</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>23</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>82</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>37</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>23</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>81</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>64</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>114</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>58</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>32</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>103</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>23</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>80</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>19</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>23</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>37</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>64</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>19</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>52</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>19</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>37</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>25</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>28</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>23</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>23</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>35</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>81</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>23</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>66</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>23</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>91</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>28</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>80</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>81</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>28</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>21</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>92</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>19</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>25</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>25</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>82</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>19</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>23</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>91</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>23</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>28</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>23</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>19</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>23</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>21</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>32</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>87</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>37</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>30</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>19</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>19</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>35</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>19</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>115</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>19</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>87</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>23</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>19</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>109</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>69</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>81</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>19</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>28</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>19</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>116</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>81</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>25</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>19</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>19</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>23</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>23</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>117</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>118</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>57</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>72</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>57</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>118</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>96</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>25</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>25</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>23</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>19</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>64</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>82</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>79</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>23</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>82</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>34</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>57</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>19</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>80</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>19</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>81</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>21</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>34</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>21</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>21</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>35</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>57</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>52</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>21</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>23</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>114</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>19</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>23</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>23</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>57</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>57</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>25</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>19</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>34</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>87</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>82</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>25</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>81</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>83</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>37</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>104</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>25</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>23</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>19</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>19</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>23</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>23</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>35</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>23</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>81</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>19</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>69</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>117</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>97</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>57</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>23</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>19</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>87</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>19</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>57</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>90</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>72</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>80</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>37</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>119</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>57</v>
       </c>
@@ -19158,102 +19158,103 @@
         <v>17</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F809" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F778" xr:uid="{399D1488-626C-43D8-9A55-06ED8EFDA452}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19261,17 +19262,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFBD41-A4CD-4705-9069-A2974D5A59F2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -19285,7 +19286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -19299,7 +19300,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>130</v>
       </c>
@@ -19313,7 +19314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -19327,7 +19328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -19355,7 +19356,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
@@ -19369,7 +19370,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
@@ -19397,7 +19398,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
@@ -19425,7 +19426,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
@@ -19453,7 +19454,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/assets/DW_Mini_case.xlsx
+++ b/src/assets/DW_Mini_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\projects\angular\awesome-pharma\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F492D-10C3-4DB0-86C2-F2A744A83F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401E324-D3DC-4D08-986C-EA5B92AEDD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:G809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E700" sqref="E1:E1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19262,8 +19262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFBD41-A4CD-4705-9069-A2974D5A59F2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19450,7 +19450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154909EE-F61E-4759-BB18-92485F3E3629}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/DW_Mini_case.xlsx
+++ b/src/assets/DW_Mini_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\projects\angular\awesome-pharma\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Attila Hagelmayer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401E324-D3DC-4D08-986C-EA5B92AEDD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2835107B-FF5D-46F3-9803-89400EF7FC8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AA7CC2-6CE3-4DB2-A4C7-00C53CA02F6C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1249,22 +1249,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A51BFE-2171-430A-872A-7971BDC90715}">
   <dimension ref="A1:G809"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A778"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>56</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>52</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>57</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>69</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>71</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>72</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>70</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>45</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>74</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>77</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>78</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>46</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>38</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>76</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>57</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>79</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>57</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>34</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>80</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>45</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>82</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>48</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>61</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>83</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>64</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>57</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>57</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>85</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>86</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>25</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>88</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>64</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>35</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>89</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>23</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>82</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>89</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>89</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>90</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>87</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>35</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>91</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>89</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>83</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>82</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>84</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>69</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>83</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>64</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>89</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>93</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>56</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>94</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>65</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>30</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>84</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>23</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>19</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>23</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>19</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>84</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>23</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>23</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>19</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>93</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>95</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>64</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>19</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>86</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>34</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>96</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>97</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>25</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>89</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>64</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>84</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>87</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>97</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>21</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>23</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>82</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>30</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>25</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>25</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>84</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>83</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>89</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>90</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>83</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>19</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>92</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>25</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>84</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>28</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>19</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>92</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>98</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>25</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>19</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>73</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>19</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>23</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>19</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>30</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>34</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>23</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>34</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>80</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>23</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>23</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>88</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>30</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>23</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>81</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>19</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>25</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>25</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>25</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>84</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>80</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>25</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>99</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>69</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>32</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>82</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>25</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>80</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>80</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>19</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>25</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>64</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>19</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>23</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>64</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>64</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>19</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>64</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>23</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>23</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>82</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>69</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>19</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>19</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>45</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>95</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>21</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>96</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>96</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>19</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>23</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>19</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>23</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>23</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>19</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>19</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>84</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>84</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>93</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>19</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>93</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>19</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>19</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>19</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>84</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>84</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>19</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>19</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>19</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>23</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>84</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>19</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>23</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>84</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>64</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>92</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>79</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>73</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>19</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>25</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>28</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>25</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>98</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>83</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>19</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>81</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>92</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>37</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>92</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>19</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>89</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>28</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>19</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>25</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>81</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>19</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>25</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>25</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>25</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>25</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>82</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>100</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>81</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>81</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>80</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>80</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>81</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>97</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>57</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>94</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>19</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>97</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>57</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>25</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>81</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>64</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>23</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>102</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>103</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>19</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>104</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>105</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>19</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>19</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>34</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>74</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>106</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>49</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>19</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>37</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>107</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>19</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>47</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>64</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>45</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>19</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>37</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>108</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>23</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>19</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>25</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>104</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>19</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>97</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>109</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>23</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>110</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>106</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>49</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>109</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>25</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>25</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>108</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>74</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>25</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>74</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>19</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>23</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>104</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>37</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>34</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>37</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>112</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>28</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>82</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>105</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>19</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>102</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>25</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>102</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>113</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>102</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>82</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>19</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>23</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>82</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>37</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>23</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>81</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>64</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>114</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>58</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>32</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>103</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>23</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>80</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>19</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>23</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>37</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>64</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>19</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>52</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>19</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>37</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>25</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>28</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>23</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>23</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>35</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>81</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>23</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>66</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>23</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>91</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>28</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>80</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>81</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>28</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>21</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>92</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>19</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>25</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>25</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>82</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>19</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>23</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>91</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>23</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>28</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>23</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>19</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>23</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>21</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>32</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>87</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>37</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>30</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>19</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>19</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>35</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>19</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>115</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>19</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>87</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>23</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>19</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>109</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>69</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>81</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>19</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>28</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>19</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>116</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>81</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>25</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>19</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>19</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>23</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>23</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>117</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>118</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>57</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>72</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>57</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>118</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>96</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>25</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>25</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>23</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>19</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>64</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>82</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>79</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>23</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>82</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>34</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>57</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>19</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>80</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>19</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>81</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>21</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>34</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>21</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>21</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>35</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>57</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>52</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>21</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>23</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>114</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>19</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>23</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>23</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>57</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>57</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>25</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>19</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>34</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>87</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>82</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>25</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>81</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>83</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>37</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>104</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>25</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>23</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>19</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>19</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>23</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>23</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>35</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>23</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>81</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>19</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>69</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>117</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>97</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>57</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>23</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>19</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>87</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>19</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>57</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>90</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>72</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>80</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>37</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>119</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>57</v>
       </c>
@@ -19158,103 +19158,102 @@
         <v>17</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F809" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F778" xr:uid="{399D1488-626C-43D8-9A55-06ED8EFDA452}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19263,16 +19262,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -19286,7 +19285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -19300,7 +19299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>130</v>
       </c>
@@ -19314,7 +19313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -19342,7 +19341,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
@@ -19370,7 +19369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
@@ -19384,7 +19383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -19412,7 +19411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
@@ -19450,11 +19449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154909EE-F61E-4759-BB18-92485F3E3629}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/assets/DW_Mini_case.xlsx
+++ b/src/assets/DW_Mini_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Attila Hagelmayer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\projects\angular\awesome-pharma\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2835107B-FF5D-46F3-9803-89400EF7FC8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795ECD7B-F2F0-4FB3-A2A3-77E046CDB462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="3" xr2:uid="{98052005-1074-4499-820C-2E6BD8DF5FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,7 +686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1905266" cy="1905266"/>
+          <a:ext cx="1905266" cy="1968766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AA7CC2-6CE3-4DB2-A4C7-00C53CA02F6C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1253,18 +1253,18 @@
       <selection activeCell="A2" sqref="A2:A778"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>56</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>52</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>57</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>69</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>71</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>72</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>70</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>45</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>74</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>77</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>78</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>46</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>38</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>76</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>57</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>79</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>57</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>34</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>80</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>45</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>82</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>48</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>61</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>83</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>64</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>57</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>57</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>85</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>86</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>25</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>88</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>64</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>35</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>89</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>23</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>82</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>89</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>89</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>90</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>87</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>35</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>91</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>89</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>83</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>82</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>84</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>69</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>83</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>64</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>89</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>93</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>56</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>94</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>65</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>30</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>84</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>23</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>19</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>23</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>19</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>84</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>23</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>23</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>19</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>93</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>95</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>64</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>19</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>86</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>34</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>96</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>97</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>25</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>89</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>64</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>84</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>87</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>97</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>21</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>23</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>82</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>30</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>25</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>25</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>84</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>83</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>89</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>90</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>83</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>19</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>92</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>25</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>84</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>28</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>19</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>92</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>98</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>25</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>19</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>73</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>19</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>23</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>19</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>30</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>34</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>23</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>34</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>80</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>23</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>23</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>88</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>30</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>23</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>81</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>19</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>25</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>25</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>25</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>84</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>80</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>25</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>99</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>69</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>32</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>82</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>25</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>80</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>80</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>19</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>25</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>64</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>19</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>23</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>64</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>64</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>19</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>64</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>23</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>23</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>82</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>69</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>19</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>19</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>45</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>95</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>21</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>96</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>96</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>19</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>23</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>19</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>23</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>23</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>19</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>19</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>84</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>84</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>93</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>19</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>93</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>19</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>19</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>19</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>84</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>84</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>19</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>19</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>19</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>23</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>84</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>19</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>23</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>84</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>64</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>92</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>79</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>73</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>19</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>25</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>28</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>25</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>98</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>83</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>19</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>81</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>92</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>37</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>92</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>19</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>89</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>28</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>19</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>25</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>81</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>19</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>25</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>25</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>25</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>25</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>82</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>100</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>81</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>81</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>80</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>80</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>81</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>97</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>57</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>94</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>19</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>97</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>57</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>25</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>81</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>64</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>23</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>102</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>103</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>19</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>104</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>105</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>19</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>19</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>34</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>74</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>106</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>49</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>19</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>37</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>107</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>19</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>47</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>64</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>45</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>19</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>37</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>108</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>23</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>19</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>25</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>104</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>19</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>97</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>109</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>23</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>110</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>106</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>49</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>109</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>25</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>25</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>108</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>74</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>25</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>74</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>19</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>23</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>104</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>37</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>34</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>37</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>112</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>28</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>82</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>105</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>19</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>102</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>25</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>102</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>113</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>102</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>82</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>19</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>23</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>82</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>37</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>23</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>81</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>64</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>114</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>58</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>32</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>103</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>23</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>80</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>19</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>23</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>37</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>64</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>19</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>52</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>19</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>37</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>25</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>28</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>23</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>23</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>35</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>81</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>23</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>66</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>23</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>91</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>28</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>80</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>81</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>28</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>21</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>92</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>19</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>25</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>25</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>82</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>19</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>23</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>91</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>23</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>28</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>23</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>19</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>23</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>21</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>32</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>87</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>37</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>30</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>19</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>19</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>35</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>19</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>115</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>19</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>87</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>23</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>19</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>109</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>69</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>81</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>19</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>28</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>19</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>116</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>81</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>25</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>19</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>19</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>23</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>23</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>117</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>118</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>57</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>72</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>57</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>118</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>96</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>25</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>25</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>23</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>19</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>64</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>82</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>79</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>23</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>82</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>34</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>57</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>19</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>80</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>19</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>81</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>21</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>34</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>21</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>21</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>35</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>57</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>52</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>21</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>23</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>114</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>19</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>23</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>23</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>57</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>57</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>25</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>19</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>34</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>87</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>82</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>25</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>81</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>83</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>37</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>104</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>25</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>23</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>19</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>19</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>23</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>23</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>35</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>23</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>81</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>19</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>69</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>117</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>97</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>57</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>23</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>19</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>87</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>19</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>57</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>90</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>72</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>80</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>37</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>119</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>57</v>
       </c>
@@ -19158,97 +19158,97 @@
         <v>17</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F809" s="2"/>
     </row>
   </sheetData>
@@ -19265,13 +19265,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>130</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
@@ -19449,11 +19449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154909EE-F61E-4759-BB18-92485F3E3629}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
